--- a/Project/Phase 2/Sprint3/Burndown chart.xlsx
+++ b/Project/Phase 2/Sprint3/Burndown chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EsteLivro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\Uni\3 ano\1 semestre\ES\SE2223_57049_59213_60173_60390_60747\Project\Phase 2\Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D966D7D8-0AC6-4400-BB5C-AF469B932228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FEA8C5-408D-4700-9E7B-D0CEB5368611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4632" yWindow="540" windowWidth="17280" windowHeight="11496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -297,36 +297,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -498,18 +468,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,19 +653,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,19 +668,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,13 +686,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,40 +701,119 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,7 +915,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1033,7 +1237,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1048433599"/>
@@ -1047,7 +1251,7 @@
         <c:axId val="1048433599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="31"/>
+          <c:max val="16"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1117,7 +1321,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1149,7 +1353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1048432767"/>
@@ -1192,7 +1396,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1229,7 +1433,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2137,10 +2341,10 @@
   <sheetPr codeName="Folha1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B2:I26"/>
+  <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2152,415 +2356,417 @@
     <col min="8" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>44879</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>44880</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="27">
         <v>44881</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="41">
         <v>44882</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="35">
         <v>44883</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="23">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>4</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="24">
+      <c r="B10" s="20">
         <v>5</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="24">
+      <c r="B11" s="20">
         <v>6</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>7</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="25">
-        <v>1</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="31">
+        <v>1</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="24">
+      <c r="B13" s="20">
         <v>8</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="25">
-        <v>1</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="31">
+        <v>1</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="24">
+      <c r="B14" s="20">
         <v>9</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
-        <v>1</v>
-      </c>
-      <c r="I14" s="25"/>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="45">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="24">
+      <c r="B15" s="20">
         <v>10</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25"/>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="45">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
+      <c r="B16" s="20">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25">
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
         <v>12</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25">
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="20">
         <v>13</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="20">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25">
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="20">
         <v>14</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="20">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25">
-        <v>1</v>
-      </c>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="21">
+        <v>1</v>
+      </c>
+      <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="24">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
         <v>15</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25">
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="35" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="21">
+      <c r="C21" s="59"/>
+      <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="18">
         <f>SUM(E6:E20)</f>
         <v>3</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="18">
         <f>SUM(F6:F20)</f>
         <v>2</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="32">
         <f>SUM(G6:G20)</f>
         <v>3</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="46">
         <f>SUM(H6:H20)</f>
         <v>2</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="23">
         <f>SUM(I6:I20)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="15">
+      <c r="C22" s="57"/>
+      <c r="D22" s="11">
         <f>SUM(D6:D21)</f>
         <v>15</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="12">
         <f>D22-SUM(E6:E20)</f>
         <v>12</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="12">
         <f>E22-SUM(F6:F20)</f>
         <v>10</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="33">
         <f>F22-SUM(G6:G20)</f>
         <v>7</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="24">
         <f>G22-SUM(H6:H20)</f>
         <v>5</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="39">
         <f>H22-SUM(I6:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31" t="s">
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="17">
+      <c r="C23" s="55"/>
+      <c r="D23" s="13">
         <f>D22</f>
         <v>15</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="14">
         <f>$D$23-($D$23/(COLUMNS(E5:I5))*COLUMNS(E5))</f>
         <v>12</v>
       </c>
@@ -2568,20 +2774,20 @@
         <f>$D$23-($D$23/(COLUMNS(E5:I5))*COLUMNS(E5:F5))</f>
         <v>9</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="34">
         <f>$D$23-($D$23/(COLUMNS(E5:I5))*COLUMNS(E5:G5))</f>
         <v>6</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="47">
         <f>$D$23-($D$23/(COLUMNS(E5:I5))*COLUMNS(E5:H5))</f>
         <v>3</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="40">
         <f>$D$23-($D$23/(COLUMNS(E5:I5))*COLUMNS(E5:I5))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B2:I2"/>
